--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -122,27 +122,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>道具组(道具id_权重;道具id_权重)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币(每秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1001_1;1002_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具组(道具id_权重;道具id_权重)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得金币(每秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
+    <t>1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -203,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,8 +235,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,14 +583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -592,7 +602,7 @@
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -616,7 +626,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -630,7 +640,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>23</v>
@@ -640,7 +650,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +659,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -660,10 +670,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>30</v>
@@ -673,47 +683,73 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12">
         <v>1000</v>
       </c>
       <c r="H5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="10"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="F7" s="10"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>400000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6"/>
@@ -722,7 +758,7 @@
       <c r="H8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -731,7 +767,7 @@
       <c r="H9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -740,7 +776,7 @@
       <c r="H10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -749,7 +785,7 @@
       <c r="H11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -758,7 +794,7 @@
       <c r="H12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -767,7 +803,7 @@
       <c r="H13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6"/>
@@ -776,7 +812,7 @@
       <c r="H14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6"/>
@@ -785,7 +821,7 @@
       <c r="H15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="9"/>
       <c r="C16" s="6"/>
@@ -794,7 +830,7 @@
       <c r="H16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="9"/>
       <c r="C17" s="6"/>
@@ -803,7 +839,7 @@
       <c r="H17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="6"/>
@@ -812,7 +848,7 @@
       <c r="H18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6"/>
@@ -821,7 +857,7 @@
       <c r="H19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="8"/>
       <c r="C20" s="6"/>
@@ -830,7 +866,7 @@
       <c r="H20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="6"/>
@@ -839,168 +875,168 @@
       <c r="H21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="16.5">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="16.5">
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1012,896 +1048,896 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1917,26 +1953,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +1998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaidId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要产出御品道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要产出御膳道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要产出服装道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,54 +608,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="2" max="2" width="29.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.296875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
@@ -640,405 +668,470 @@
         <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="11">
         <v>1000</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>1000</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9">
         <v>19</v>
       </c>
-      <c r="B6" s="9">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="D6" s="11">
         <v>20000</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9">
         <v>18</v>
       </c>
-      <c r="B7" s="9">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="11">
         <v>400000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
+      <c r="B8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
+      <c r="B9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="6"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
+      <c r="B10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
+      <c r="B11"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="6"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
+      <c r="B12"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6"/>
+      <c r="B13"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="6"/>
-      <c r="F13" s="10"/>
-      <c r="H13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
+      <c r="B14"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6"/>
+      <c r="B15"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="6"/>
-      <c r="F15" s="10"/>
-      <c r="H15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6"/>
+      <c r="B16"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="6"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6"/>
+      <c r="B17"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="6"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="6"/>
+      <c r="G17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6"/>
+      <c r="B18"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="6"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
+      <c r="B19"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="6"/>
+      <c r="G19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
+      <c r="B20"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="6"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="6"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
+      <c r="B21"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="6"/>
-      <c r="F21" s="10"/>
-      <c r="H21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="6"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
+      <c r="B22"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
+      <c r="B23"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
+      <c r="B24"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
+      <c r="B25"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
+      <c r="B26"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
+      <c r="B27"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
+      <c r="B28"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
+      <c r="B29"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
+      <c r="B30"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
+      <c r="B31"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
+      <c r="B32"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
+      <c r="B33"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
+      <c r="B34"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
+      <c r="B35"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
+      <c r="B36"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
+      <c r="B37"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
+      <c r="B38"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
+      <c r="B39"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
+      <c r="B40"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="6"/>
+      <c r="B41"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6"/>
+      <c r="B42"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="E47" s="1"/>
+      <c r="B47"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1047,899 +1140,1157 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B187"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B189"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B191"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B193"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B197"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B201"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B207"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B209"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B211"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271"/>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B277"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B279"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B283"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B285"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B287"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B291"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293"/>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B293"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B295"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297"/>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B299"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301"/>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B301"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303"/>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B303"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
+      <c r="C304"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001_1;1002_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +159,18 @@
   </si>
   <si>
     <t>Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001_1;40002_1;40003_1;40004_1;40005_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001_1;30002_1;30003_1;30004_1;30005_1;30006_1;30007_1;30008_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +619,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,7 +628,7 @@
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.296875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -646,7 +654,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -672,7 +680,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -707,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -727,13 +735,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5" s="12">
         <v>1000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="6"/>
       <c r="J5" s="6"/>
@@ -752,13 +760,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="6"/>
       <c r="J6" s="6"/>
@@ -777,13 +785,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产出描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,11 +162,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30001_1;30002_1;30003_1;30004_1;30005_1;30006_1;30007_1;30008_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_1;20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +619,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -680,7 +680,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -715,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -735,13 +735,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="6"/>
       <c r="J5" s="6"/>
@@ -760,13 +760,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="6"/>
       <c r="J6" s="6"/>
@@ -785,13 +785,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -754,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="11">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11">
-        <v>400000</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="11">
         <v>3</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="11">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>43</v>
@@ -757,7 +757,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="11">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>41</v>
@@ -782,7 +782,7 @@
         <v>2000</v>
       </c>
       <c r="D7" s="11">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>40</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="11">
         <v>30000</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_1;20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,7 +623,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,56 +801,152 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="9">
+        <v>123</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="9">
+        <v>125</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>200000</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="9">
+        <v>124</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="11">
+        <v>300000</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="9">
+        <v>223</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="11">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="9">
+        <v>225</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="11">
+        <v>400000</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="9">
+        <v>224</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>600000</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="J13" s="6"/>
     </row>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="B10" s="9">
         <v>3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9">
         <v>3</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="11">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>43</v>
@@ -761,7 +761,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="11">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>41</v>
@@ -786,7 +786,7 @@
         <v>3000</v>
       </c>
       <c r="D7" s="11">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>40</v>
@@ -811,7 +811,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="11">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>44</v>
@@ -836,7 +836,7 @@
         <v>2000</v>
       </c>
       <c r="D9" s="11">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>41</v>
@@ -861,7 +861,7 @@
         <v>3000</v>
       </c>
       <c r="D10" s="11">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>40</v>
@@ -886,7 +886,7 @@
         <v>1000</v>
       </c>
       <c r="D11" s="11">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -911,7 +911,7 @@
         <v>2000</v>
       </c>
       <c r="D12" s="11">
-        <v>400000</v>
+        <v>40000</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>41</v>
@@ -936,7 +936,7 @@
         <v>3000</v>
       </c>
       <c r="D13" s="11">
-        <v>600000</v>
+        <v>60000</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>40</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="11">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>43</v>
@@ -761,7 +761,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="11">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>41</v>
@@ -786,7 +786,7 @@
         <v>3000</v>
       </c>
       <c r="D7" s="11">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>40</v>
@@ -811,7 +811,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="11">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>44</v>
@@ -836,7 +836,7 @@
         <v>2000</v>
       </c>
       <c r="D9" s="11">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>41</v>
@@ -861,7 +861,7 @@
         <v>3000</v>
       </c>
       <c r="D10" s="11">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>40</v>
@@ -886,7 +886,7 @@
         <v>1000</v>
       </c>
       <c r="D11" s="11">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -911,7 +911,7 @@
         <v>2000</v>
       </c>
       <c r="D12" s="11">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>41</v>
@@ -936,7 +936,7 @@
         <v>3000</v>
       </c>
       <c r="D13" s="11">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>40</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>1000</v>
+        <v>760000</v>
       </c>
       <c r="D5" s="11">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>43</v>
@@ -758,10 +758,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="11">
-        <v>2000</v>
+        <v>950000</v>
       </c>
       <c r="D6" s="11">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>41</v>
@@ -783,10 +783,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="11">
-        <v>3000</v>
+        <v>1900000</v>
       </c>
       <c r="D7" s="11">
-        <v>800</v>
+        <v>190</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>40</v>
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>1000</v>
+        <v>2760000</v>
       </c>
       <c r="D8" s="11">
-        <v>1000</v>
+        <v>276</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>44</v>
@@ -833,10 +833,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>2000</v>
+        <v>3450000</v>
       </c>
       <c r="D9" s="11">
-        <v>2000</v>
+        <v>345</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>41</v>
@@ -858,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>3000</v>
+        <v>6900000</v>
       </c>
       <c r="D10" s="11">
-        <v>3000</v>
+        <v>690</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>40</v>
@@ -883,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="11">
-        <v>1000</v>
+        <v>4720000</v>
       </c>
       <c r="D11" s="11">
-        <v>5000</v>
+        <v>472</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -908,10 +908,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="11">
-        <v>2000</v>
+        <v>5900000</v>
       </c>
       <c r="D12" s="11">
-        <v>8000</v>
+        <v>590</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>41</v>
@@ -933,10 +933,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="11">
-        <v>3000</v>
+        <v>11800000</v>
       </c>
       <c r="D13" s="11">
-        <v>10000</v>
+        <v>1180</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>40</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B10" s="9">
         <v>3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B13" s="9">
         <v>3</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldAddition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +171,88 @@
   </si>
   <si>
     <t>10001_1;20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ListSpliter:","</t>
+  </si>
+  <si>
+    <t>解锁金币（0个、1万、2亿、3兆、4京、5垓、6秭、7穰、8沟、9涧、10正、11载 、12极）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_76]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_95]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_190]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_276]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_345]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_690]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_472]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_590]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_1180]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_76,0_0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_95,0_0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_190,0_0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_276,0_0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_345,0_0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_690,0_0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_472,0_0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_590,0_0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1_1180,0_0000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +290,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +301,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,6 +363,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,18 +713,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.69921875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="66.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.296875" customWidth="1"/>
@@ -645,20 +738,20 @@
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -671,20 +764,20 @@
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
+      <c r="C2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -694,6 +787,12 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
@@ -706,20 +805,20 @@
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
+      <c r="C4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -732,20 +831,20 @@
       <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
-        <v>760000</v>
-      </c>
-      <c r="D5" s="11">
-        <v>76</v>
+      <c r="C5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="12">
         <v>10000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="6"/>
       <c r="J5" s="6"/>
@@ -757,20 +856,20 @@
       <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>950000</v>
-      </c>
-      <c r="D6" s="11">
-        <v>95</v>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="6"/>
       <c r="J6" s="6"/>
@@ -782,111 +881,111 @@
       <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>1900000</v>
-      </c>
-      <c r="D7" s="11">
-        <v>190</v>
+      <c r="C7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2760000</v>
-      </c>
-      <c r="D8" s="11">
-        <v>276</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="12">
         <v>10000</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3450000</v>
-      </c>
-      <c r="D9" s="11">
-        <v>345</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="B10" s="9">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11">
-        <v>6900000</v>
-      </c>
-      <c r="D10" s="11">
-        <v>690</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="11">
-        <v>4720000</v>
-      </c>
-      <c r="D11" s="11">
-        <v>472</v>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -895,185 +994,341 @@
         <v>10000</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="11">
-        <v>5900000</v>
-      </c>
-      <c r="D12" s="11">
-        <v>590</v>
+      <c r="C12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="11">
-        <v>11800000</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1180</v>
+      <c r="C13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="6"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="9">
+        <v>203</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="9">
+        <v>204</v>
+      </c>
+      <c r="B15" s="9">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="9">
+        <v>205</v>
+      </c>
+      <c r="B16" s="9">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="9">
+        <v>100</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="9">
+        <v>101</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="9">
+        <v>102</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="9">
+        <v>103</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="9">
+        <v>104</v>
+      </c>
+      <c r="B21" s="9">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="9">
+        <v>105</v>
+      </c>
+      <c r="B22" s="9">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F23" s="10"/>
+      <c r="H23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F24" s="10"/>
+      <c r="H24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F25" s="10"/>
+      <c r="H25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F26" s="10"/>
+      <c r="H26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F27" s="10"/>
+      <c r="H27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
@@ -1097,156 +1352,181 @@
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="8"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45"/>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="8"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="8"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53"/>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1260,21 +1540,18 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
-      <c r="B70"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
-      <c r="B72"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
@@ -2087,6 +2364,27 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306"/>
+      <c r="B306"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308"/>
+      <c r="B308"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310"/>
+      <c r="B310"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -184,75 +184,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0_76]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_95]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_190]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_276]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_345]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_690]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_472]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_590]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_1180]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_76,0_0000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_95,0_0000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_190,0_0000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_276,0_0000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_345,0_0000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_690,0_0000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_472,0_0000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_590,0_0000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1_1180,0_0000]</t>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>1_76,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_190,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_95,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_276,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_345,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_690,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_472,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_590,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1180,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +719,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>44</v>
@@ -832,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>42</v>
@@ -857,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>40</v>
@@ -882,10 +885,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>39</v>
@@ -907,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>42</v>
@@ -932,10 +935,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>40</v>
@@ -957,10 +960,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>39</v>
@@ -982,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -1007,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>40</v>
@@ -1032,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>39</v>
@@ -1057,10 +1060,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>42</v>
@@ -1082,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>40</v>
@@ -1107,10 +1110,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>39</v>
@@ -1132,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>42</v>
@@ -1157,10 +1160,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>40</v>
@@ -1182,10 +1185,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>39</v>
@@ -1207,10 +1210,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -1232,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>40</v>
@@ -1257,10 +1260,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>39</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -172,9 +172,6 @@
   <si>
     <t>10001_1;20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>ListSpliter:","</t>
@@ -719,7 +716,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,10 +765,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>32</v>
@@ -791,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -809,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>31</v>
@@ -835,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>42</v>
@@ -860,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>40</v>
@@ -885,10 +882,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>39</v>
@@ -910,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>42</v>
@@ -935,10 +932,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>40</v>
@@ -960,10 +957,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>39</v>
@@ -985,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -1010,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>40</v>
@@ -1035,10 +1032,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>39</v>
@@ -1060,10 +1057,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>42</v>
@@ -1085,10 +1082,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>40</v>
@@ -1110,10 +1107,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>39</v>
@@ -1135,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>42</v>
@@ -1160,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>40</v>
@@ -1185,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>39</v>
@@ -1210,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -1235,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>40</v>
@@ -1260,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>39</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -184,10 +184,6 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>1_76,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1_190,0_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,6 +249,10 @@
   </si>
   <si>
     <t>0_1180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +716,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>42</v>
@@ -857,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>40</v>
@@ -882,10 +882,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>39</v>
@@ -907,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>42</v>
@@ -932,10 +932,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>40</v>
@@ -957,10 +957,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>39</v>
@@ -982,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -1007,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>40</v>
@@ -1032,10 +1032,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>39</v>
@@ -1057,10 +1057,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>42</v>
@@ -1082,10 +1082,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>40</v>
@@ -1107,10 +1107,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>39</v>
@@ -1132,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>42</v>
@@ -1157,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>40</v>
@@ -1182,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>39</v>
@@ -1207,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -1232,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>40</v>
@@ -1257,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>39</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -184,75 +184,123 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>1_190,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_95,0_0000</t>
+    <t>1_345,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_690,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_472,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_590,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1180,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_18,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1,0_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1,0_9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_48,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_78,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_98,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_175,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_60,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_100,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_120,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_150,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_200,0_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1_276,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_345,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_690,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_472,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_590,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1180,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_690</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_472</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_1180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +764,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>42</v>
@@ -857,10 +905,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>40</v>
@@ -882,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>39</v>
@@ -907,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>42</v>
@@ -932,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>57</v>
@@ -957,10 +1005,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>39</v>
@@ -982,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -1007,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>59</v>
@@ -1032,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>39</v>
@@ -1057,10 +1105,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>42</v>
@@ -1082,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>40</v>
@@ -1107,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>39</v>
@@ -1132,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>42</v>
@@ -1157,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>40</v>
@@ -1182,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>39</v>
@@ -1207,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -1232,10 +1280,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>40</v>
@@ -1257,10 +1305,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>39</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -184,26 +184,6 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>1_345,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_690,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_472,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_590,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1180,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,7 +280,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_276,0_0000</t>
+    <t>1_1000,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3000,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_6000,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1,1_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1,1_9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_4,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_18,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_48,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_78,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_98,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_175,1_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +362,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +450,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,7 +800,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -873,17 +909,17 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="17">
         <v>300</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>53</v>
+      <c r="C5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>42</v>
@@ -898,17 +934,17 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="17">
         <v>301</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>54</v>
+      <c r="C6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>40</v>
@@ -923,17 +959,17 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="17">
         <v>302</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>55</v>
+      <c r="C7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>39</v>
@@ -948,17 +984,17 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="17">
         <v>303</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>56</v>
+      <c r="C8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>42</v>
@@ -973,17 +1009,17 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="17">
         <v>304</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="17">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>57</v>
+      <c r="C9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>40</v>
@@ -998,17 +1034,17 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="17">
         <v>305</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="17">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
+      <c r="C10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>39</v>
@@ -1030,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -1055,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>40</v>
@@ -1080,10 +1116,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>39</v>
@@ -1105,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>42</v>
@@ -1130,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>40</v>
@@ -1155,10 +1191,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>39</v>
@@ -1173,17 +1209,17 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="17">
         <v>100</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>66</v>
+      <c r="C17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>42</v>
@@ -1198,17 +1234,17 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="17">
         <v>101</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="17">
         <v>2</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>63</v>
+      <c r="C18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>40</v>
@@ -1223,17 +1259,17 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="17">
         <v>102</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="17">
         <v>3</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>67</v>
+      <c r="C19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>39</v>
@@ -1248,17 +1284,17 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="17">
         <v>103</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="18">
         <v>4</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>68</v>
+      <c r="C20" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -1273,17 +1309,17 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="17">
         <v>104</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="17">
         <v>5</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>69</v>
+      <c r="C21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>40</v>
@@ -1298,17 +1334,17 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="17">
         <v>105</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="17">
         <v>6</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>70</v>
+      <c r="C22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>39</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -405,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,9 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,6 +453,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,7 +806,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A23" sqref="A23:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,10 +828,10 @@
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -848,10 +854,10 @@
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -871,10 +877,10 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E3" t="s">
@@ -889,10 +895,10 @@
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -909,22 +915,22 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>300</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>10000</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -934,22 +940,22 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>301</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -959,22 +965,22 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>302</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -984,22 +990,22 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>303</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>10000</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1009,22 +1015,22 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>304</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1034,22 +1040,22 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>305</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1062,19 +1068,19 @@
       <c r="A11" s="9">
         <v>200</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>10000</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -1090,16 +1096,16 @@
       <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1115,16 +1121,16 @@
       <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -1137,19 +1143,19 @@
       <c r="A14" s="9">
         <v>203</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>10000</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -1165,16 +1171,16 @@
       <c r="B15" s="9">
         <v>5</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1190,16 +1196,16 @@
       <c r="B16" s="9">
         <v>6</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1209,22 +1215,22 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>100</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>10000</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -1234,22 +1240,22 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>101</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>2</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -1259,22 +1265,22 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>102</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>3</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1284,22 +1290,22 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>103</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>10000</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -1309,22 +1315,22 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>104</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>5</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -1334,22 +1340,22 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>105</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>6</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -1359,62 +1365,75 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="6"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>2_175,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -928,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F5" s="11">
         <v>10000</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -328,7 +328,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20004_1</t>
+    <t>10001_1;20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001_1;20002_1;20004_1;20005_1;20006_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +814,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,7 +936,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="11">
         <v>10000</v>
@@ -1007,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F8" s="11">
         <v>10000</v>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1373,68 +1373,152 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="16">
+        <v>400</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="16">
+        <v>401</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="16">
+        <v>402</v>
+      </c>
+      <c r="B25" s="16">
+        <v>3</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="16">
+        <v>403</v>
+      </c>
+      <c r="B26" s="17">
+        <v>4</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="5"/>
+      <c r="A27" s="16">
+        <v>404</v>
+      </c>
+      <c r="B27" s="16">
+        <v>5</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="16">
+        <v>405</v>
+      </c>
+      <c r="B28" s="16">
+        <v>6</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -413,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +470,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,7 +820,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -924,7 +930,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -949,7 +955,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="B6" s="16">
         <v>2</v>
@@ -974,7 +980,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="B7" s="16">
         <v>3</v>
@@ -999,7 +1005,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="B8" s="17">
         <v>4</v>
@@ -1024,7 +1030,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="B9" s="16">
         <v>5</v>
@@ -1049,7 +1055,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="B10" s="16">
         <v>6</v>
@@ -1224,7 +1230,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="B17" s="17">
         <v>1</v>
@@ -1249,7 +1255,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="B18" s="16">
         <v>2</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="B19" s="16">
         <v>3</v>
@@ -1299,7 +1305,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="B20" s="17">
         <v>4</v>
@@ -1324,7 +1330,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="B21" s="16">
         <v>5</v>
@@ -1349,7 +1355,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="B22" s="16">
         <v>6</v>
@@ -1373,16 +1379,16 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="21">
         <v>400</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="22">
         <v>1</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -1398,16 +1404,16 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="A24" s="21">
         <v>401</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="21">
         <v>2</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="22" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -1423,16 +1429,16 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="21">
         <v>402</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="21">
         <v>3</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="22" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -1448,16 +1454,16 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="21">
         <v>403</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="22">
         <v>4</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="22" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -1473,16 +1479,16 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+      <c r="A27" s="21">
         <v>404</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="21">
         <v>5</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -1498,16 +1504,16 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="21">
         <v>405</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="21">
         <v>6</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="22" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="10" t="s">

--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="PalaceMapMaid" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -188,158 +189,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0_30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_18,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1,0_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1,0_9000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_4,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_48,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_78,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_98,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_175,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_60,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_100,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_120,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_150,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_200,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1000,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_3000,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_6000,0_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1,1_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1,1_9000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_4,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_18,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_48,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_78,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_98,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_175,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10001_1;20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20001_1;20002_1;20004_1;20005_1;20006_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>初始值</t>
+  </si>
+  <si>
+    <t>倍数</t>
+  </si>
+  <si>
+    <t>向上取整数</t>
+  </si>
+  <si>
+    <t>0_400</t>
+  </si>
+  <si>
+    <t>0_1000</t>
+  </si>
+  <si>
+    <t>0_1600</t>
+  </si>
+  <si>
+    <t>0_3100</t>
+  </si>
+  <si>
+    <t>0_5500</t>
+  </si>
+  <si>
+    <t>0_8500</t>
+  </si>
+  <si>
+    <t>1_100,0_0</t>
+  </si>
+  <si>
+    <t>1_160,0_0</t>
+  </si>
+  <si>
+    <t>1_310,0_0</t>
+  </si>
+  <si>
+    <t>1_550,0_0</t>
+  </si>
+  <si>
+    <t>1_850,0_0</t>
+  </si>
+  <si>
+    <t>0_8000</t>
+  </si>
+  <si>
+    <t>1_2,0_0</t>
+  </si>
+  <si>
+    <t>1_3,0_2000</t>
+  </si>
+  <si>
+    <t>1_6,0_2000</t>
+  </si>
+  <si>
+    <t>1_11,0_0</t>
+  </si>
+  <si>
+    <t>1_17,0_0</t>
+  </si>
+  <si>
+    <t>1_800,0_0</t>
+  </si>
+  <si>
+    <t>1_2000,0_0</t>
+  </si>
+  <si>
+    <t>1_3200,0_0</t>
+  </si>
+  <si>
+    <t>1_6200,0_0</t>
+  </si>
+  <si>
+    <t>2_1,1_1000</t>
+  </si>
+  <si>
+    <t>2_1,1_7000</t>
+  </si>
+  <si>
+    <t>1_8,0_0</t>
+  </si>
+  <si>
+    <t>1_20,0_0</t>
+  </si>
+  <si>
+    <t>1_32,0_0</t>
+  </si>
+  <si>
+    <t>1_62,0_0</t>
+  </si>
+  <si>
+    <t>2_110,1_0</t>
+  </si>
+  <si>
+    <t>2_170,1_0</t>
+  </si>
+  <si>
+    <t>1_8000,0_0</t>
+  </si>
+  <si>
+    <t>2_2,1_0</t>
+  </si>
+  <si>
+    <t>2_3,1_2000</t>
+  </si>
+  <si>
+    <t>2_6,1_2000</t>
+  </si>
+  <si>
+    <t>2_11,1_0</t>
+  </si>
+  <si>
+    <t>2_17,1_0</t>
+  </si>
+  <si>
+    <t>1_110,0_0</t>
+  </si>
+  <si>
+    <t>1_170,0_0</t>
+  </si>
+  <si>
+    <t>1_80,0_0</t>
+  </si>
+  <si>
+    <t>1_200,0_0</t>
+  </si>
+  <si>
+    <t>1_320,0_0</t>
+  </si>
+  <si>
+    <t>1_620,0_0</t>
+  </si>
+  <si>
+    <t>1_1100,0_0</t>
+  </si>
+  <si>
+    <t>1_1700,0_0</t>
+  </si>
+  <si>
+    <t>2_8,1_0</t>
+  </si>
+  <si>
+    <t>2_20,1_0</t>
+  </si>
+  <si>
+    <t>2_32,1_0</t>
+  </si>
+  <si>
+    <t>2_62,1_0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -413,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +493,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,7 +849,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,10 +968,10 @@
         <v>47</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F5" s="11">
         <v>10000</v>
@@ -961,10 +990,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>40</v>
@@ -986,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>39</v>
@@ -1011,13 +1040,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="F8" s="11">
         <v>10000</v>
@@ -1036,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>40</v>
@@ -1061,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>39</v>
@@ -1089,7 +1118,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>43</v>
@@ -1114,7 +1143,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>40</v>
@@ -1139,7 +1168,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>39</v>
@@ -1164,7 +1193,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>42</v>
@@ -1189,7 +1218,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>40</v>
@@ -1214,7 +1243,7 @@
         <v>76</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>39</v>
@@ -1236,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>42</v>
@@ -1261,10 +1290,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>40</v>
@@ -1286,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>39</v>
@@ -1311,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>42</v>
@@ -1336,10 +1365,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>40</v>
@@ -1361,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>39</v>
@@ -1386,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>42</v>
@@ -1411,10 +1440,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>40</v>
@@ -1436,10 +1465,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>39</v>
@@ -1461,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>42</v>
@@ -1489,7 +1518,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>40</v>
@@ -1514,7 +1543,7 @@
         <v>82</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>39</v>
@@ -1567,42 +1596,36 @@
       <c r="A34"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2679,4 +2702,2807 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <f>IF(C5&gt;1,C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5,"0_"&amp;H5)</f>
+        <v>1_40,0_0</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(H5:W5,"&gt;-1")</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" ref="F5:F68" si="0">ROUNDUP(D5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="str">
+        <f>TEXT(F5,REPT("0", CEILING(LEN(F5)/4,1)*4))</f>
+        <v>0001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0_"&amp;H6)</f>
+        <v>1_100,0_0</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(H6:W6,"&gt;-1")</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" ref="D6:D69" si="1">D5*E5</f>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="24" t="str">
+        <f t="shared" ref="G6:G69" si="2">TEXT(F6,REPT("0", CEILING(LEN(F6)/4,1)*4))</f>
+        <v>0002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
+        <v>1_160,0_0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <f t="shared" si="3"/>
+        <v>1_310,0_0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0006</v>
+      </c>
+      <c r="H8" s="1">
+        <v>310</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <f t="shared" si="3"/>
+        <v>1_550,0_0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0009</v>
+      </c>
+      <c r="H9" s="1">
+        <v>550</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <f t="shared" si="3"/>
+        <v>1_850,0_0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G10" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0014</v>
+      </c>
+      <c r="H10" s="1">
+        <v>850</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="str">
+        <f t="shared" si="3"/>
+        <v>2_8,1_0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+      <c r="E11">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>800000000</v>
+      </c>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>000800000000</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <f t="shared" si="3"/>
+        <v>2_20,1_0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="1"/>
+        <v>28.349999999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="G12" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>002000000000</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <f t="shared" si="3"/>
+        <v>2_32,1_0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="1"/>
+        <v>39.69</v>
+      </c>
+      <c r="E13">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3200000000</v>
+      </c>
+      <c r="G13" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>003200000000</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="str">
+        <f t="shared" si="3"/>
+        <v>2_62,1_0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="1"/>
+        <v>55.565999999999995</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6200000000</v>
+      </c>
+      <c r="G14" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>006200000000</v>
+      </c>
+      <c r="H14">
+        <v>62</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <f t="shared" si="3"/>
+        <v>2_110,1_0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="1"/>
+        <v>77.792399999999986</v>
+      </c>
+      <c r="E15">
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>11000000000</v>
+      </c>
+      <c r="G15" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>011000000000</v>
+      </c>
+      <c r="H15">
+        <v>110</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <f t="shared" si="3"/>
+        <v>2_170,1_0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="1"/>
+        <v>108.90935999999998</v>
+      </c>
+      <c r="E16">
+        <v>1.4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>17000000000</v>
+      </c>
+      <c r="G16" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>017000000000</v>
+      </c>
+      <c r="H16">
+        <v>170</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <f t="shared" si="3"/>
+        <v>0_</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="1"/>
+        <v>152.47310399999995</v>
+      </c>
+      <c r="E17">
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="1">
+        <f>SUM(F11:F16)</f>
+        <v>40200000000</v>
+      </c>
+      <c r="G17" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>040200000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <f t="shared" si="3"/>
+        <v>0_183</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="1"/>
+        <v>182.96772479999993</v>
+      </c>
+      <c r="E18">
+        <v>1.2</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="G18" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0183</v>
+      </c>
+      <c r="H18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <f t="shared" si="3"/>
+        <v>0_220</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="1"/>
+        <v>219.5612697599999</v>
+      </c>
+      <c r="E19">
+        <v>1.2</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G19" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0220</v>
+      </c>
+      <c r="H19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <f t="shared" si="3"/>
+        <v>0_264</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="1"/>
+        <v>263.47352371199986</v>
+      </c>
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="G20" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0264</v>
+      </c>
+      <c r="H20">
+        <v>264</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" t="str">
+        <f t="shared" si="3"/>
+        <v>0_317</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="1"/>
+        <v>316.16822845439981</v>
+      </c>
+      <c r="E21">
+        <v>1.2</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+      <c r="G21" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0317</v>
+      </c>
+      <c r="H21">
+        <v>317</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" t="str">
+        <f t="shared" si="3"/>
+        <v>0_380</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="1"/>
+        <v>379.40187414527975</v>
+      </c>
+      <c r="E22">
+        <v>1.2</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="G22" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0380</v>
+      </c>
+      <c r="H22">
+        <v>380</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <f t="shared" si="3"/>
+        <v>0_456</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="1"/>
+        <v>455.28224897433569</v>
+      </c>
+      <c r="E23">
+        <v>1.18</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="G23" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0456</v>
+      </c>
+      <c r="H23">
+        <v>456</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <f t="shared" si="3"/>
+        <v>0_538</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="1"/>
+        <v>537.23305378971611</v>
+      </c>
+      <c r="E24">
+        <v>1.18</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="0"/>
+        <v>538</v>
+      </c>
+      <c r="G24" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0538</v>
+      </c>
+      <c r="H24">
+        <v>538</v>
+      </c>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <f t="shared" si="3"/>
+        <v>0_634</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="1"/>
+        <v>633.935003471865</v>
+      </c>
+      <c r="E25">
+        <v>1.18</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="0"/>
+        <v>634</v>
+      </c>
+      <c r="G25" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0634</v>
+      </c>
+      <c r="H25">
+        <v>634</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <f t="shared" si="3"/>
+        <v>0_749</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="1"/>
+        <v>748.04330409680063</v>
+      </c>
+      <c r="E26">
+        <v>1.18</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="0"/>
+        <v>749</v>
+      </c>
+      <c r="G26" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0749</v>
+      </c>
+      <c r="H26">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <f t="shared" si="3"/>
+        <v>0_883</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="1"/>
+        <v>882.6910988342247</v>
+      </c>
+      <c r="E27">
+        <v>1.18</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="0"/>
+        <v>883</v>
+      </c>
+      <c r="G27" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>0883</v>
+      </c>
+      <c r="H27">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1042</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="1"/>
+        <v>1041.5754966243851</v>
+      </c>
+      <c r="E28">
+        <v>1.18</v>
+      </c>
+      <c r="F28" s="26">
+        <f t="shared" si="0"/>
+        <v>1042</v>
+      </c>
+      <c r="G28" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>1042</v>
+      </c>
+      <c r="H28">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1230</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="1"/>
+        <v>1229.0590860167742</v>
+      </c>
+      <c r="E29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F29" s="26">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+      <c r="G29" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>1230</v>
+      </c>
+      <c r="H29">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1426</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="1"/>
+        <v>1425.7085397794581</v>
+      </c>
+      <c r="E30">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F30" s="26">
+        <f t="shared" si="0"/>
+        <v>1426</v>
+      </c>
+      <c r="G30" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>1426</v>
+      </c>
+      <c r="H30">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1654</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="1"/>
+        <v>1653.8219061441712</v>
+      </c>
+      <c r="E31">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" si="0"/>
+        <v>1654</v>
+      </c>
+      <c r="G31" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>1654</v>
+      </c>
+      <c r="H31">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1919</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="1"/>
+        <v>1918.4334111272385</v>
+      </c>
+      <c r="E32">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" si="0"/>
+        <v>1919</v>
+      </c>
+      <c r="G32" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>1919</v>
+      </c>
+      <c r="H32">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="str">
+        <f t="shared" si="3"/>
+        <v>0_2226</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="1"/>
+        <v>2225.3827569075966</v>
+      </c>
+      <c r="E33">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F33" s="26">
+        <f t="shared" si="0"/>
+        <v>2226</v>
+      </c>
+      <c r="G33" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>2226</v>
+      </c>
+      <c r="H33">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <f t="shared" si="3"/>
+        <v>0_2582</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="1"/>
+        <v>2581.4439980128118</v>
+      </c>
+      <c r="E34">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F34" s="26">
+        <f t="shared" si="0"/>
+        <v>2582</v>
+      </c>
+      <c r="G34" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>2582</v>
+      </c>
+      <c r="H34">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <f t="shared" si="3"/>
+        <v>0_2995</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="1"/>
+        <v>2994.4750376948614</v>
+      </c>
+      <c r="E35">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F35" s="26">
+        <f t="shared" si="0"/>
+        <v>2995</v>
+      </c>
+      <c r="G35" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>2995</v>
+      </c>
+      <c r="H35">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <f t="shared" si="3"/>
+        <v>0_3414</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="1"/>
+        <v>3413.7015429721419</v>
+      </c>
+      <c r="E36">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F36" s="26">
+        <f t="shared" si="0"/>
+        <v>3414</v>
+      </c>
+      <c r="G36" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>3414</v>
+      </c>
+      <c r="H36">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <f t="shared" si="3"/>
+        <v>0_3892</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="1"/>
+        <v>3891.6197589882413</v>
+      </c>
+      <c r="E37">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F37" s="26">
+        <f t="shared" si="0"/>
+        <v>3892</v>
+      </c>
+      <c r="G37" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>3892</v>
+      </c>
+      <c r="H37">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="str">
+        <f t="shared" si="3"/>
+        <v>0_4437</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="1"/>
+        <v>4436.4465252465943</v>
+      </c>
+      <c r="E38">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F38" s="26">
+        <f t="shared" si="0"/>
+        <v>4437</v>
+      </c>
+      <c r="G38" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>4437</v>
+      </c>
+      <c r="H38">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <f t="shared" si="3"/>
+        <v>0_5058</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="1"/>
+        <v>5057.5490387811169</v>
+      </c>
+      <c r="E39">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F39" s="26">
+        <f t="shared" si="0"/>
+        <v>5058</v>
+      </c>
+      <c r="G39" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>5058</v>
+      </c>
+      <c r="H39">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <f t="shared" si="3"/>
+        <v>0_5766</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="1"/>
+        <v>5765.6059042104725</v>
+      </c>
+      <c r="E40">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F40" s="26">
+        <f t="shared" si="0"/>
+        <v>5766</v>
+      </c>
+      <c r="G40" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>5766</v>
+      </c>
+      <c r="H40">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <f t="shared" si="3"/>
+        <v>0_6573</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="25">
+        <f t="shared" si="1"/>
+        <v>6572.7907307999385</v>
+      </c>
+      <c r="E41">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F41" s="26">
+        <f t="shared" si="0"/>
+        <v>6573</v>
+      </c>
+      <c r="G41" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>6573</v>
+      </c>
+      <c r="H41">
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <f t="shared" si="3"/>
+        <v>0_7362</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="25">
+        <f t="shared" si="1"/>
+        <v>7361.5256184959317</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F42" s="26">
+        <f t="shared" si="0"/>
+        <v>7362</v>
+      </c>
+      <c r="G42" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>7362</v>
+      </c>
+      <c r="H42">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="str">
+        <f t="shared" si="3"/>
+        <v>0_8245</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" si="1"/>
+        <v>8244.908692715444</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F43" s="26">
+        <f t="shared" si="0"/>
+        <v>8245</v>
+      </c>
+      <c r="G43" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>8245</v>
+      </c>
+      <c r="H43">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="str">
+        <f t="shared" si="3"/>
+        <v>0_9235</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" si="1"/>
+        <v>9234.2977358412973</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F44" s="26">
+        <f t="shared" si="0"/>
+        <v>9235</v>
+      </c>
+      <c r="G44" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>9235</v>
+      </c>
+      <c r="H44">
+        <v>9235</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1,0_343</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" si="1"/>
+        <v>10342.413464142253</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F45" s="26">
+        <f t="shared" si="0"/>
+        <v>10343</v>
+      </c>
+      <c r="G45" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00010343</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1,0_1584</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="1"/>
+        <v>11583.503079839325</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="0"/>
+        <v>11584</v>
+      </c>
+      <c r="G46" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00011584</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1,0_2974</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="1"/>
+        <v>12973.523449420045</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F47" s="26">
+        <f t="shared" si="0"/>
+        <v>12974</v>
+      </c>
+      <c r="G47" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00012974</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1,0_4271</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="1"/>
+        <v>14270.875794362051</v>
+      </c>
+      <c r="E48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F48" s="26">
+        <f t="shared" si="0"/>
+        <v>14271</v>
+      </c>
+      <c r="G48" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00014271</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1,0_5698</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" si="1"/>
+        <v>15697.963373798257</v>
+      </c>
+      <c r="E49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F49" s="26">
+        <f t="shared" si="0"/>
+        <v>15698</v>
+      </c>
+      <c r="G49" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00015698</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1,0_7268</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" si="1"/>
+        <v>17267.759711178085</v>
+      </c>
+      <c r="E50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F50" s="26">
+        <f t="shared" si="0"/>
+        <v>17268</v>
+      </c>
+      <c r="G50" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00017268</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>7268</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1,0_8995</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="25">
+        <f t="shared" si="1"/>
+        <v>18994.535682295897</v>
+      </c>
+      <c r="E51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F51" s="26">
+        <f t="shared" si="0"/>
+        <v>18995</v>
+      </c>
+      <c r="G51" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00018995</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2,0_894</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="25">
+        <f t="shared" si="1"/>
+        <v>20893.989250525487</v>
+      </c>
+      <c r="E52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F52" s="26">
+        <f t="shared" si="0"/>
+        <v>20894</v>
+      </c>
+      <c r="G52" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00020894</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2,0_2984</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="25">
+        <f t="shared" si="1"/>
+        <v>22983.388175578038</v>
+      </c>
+      <c r="E53">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F53" s="26">
+        <f t="shared" si="0"/>
+        <v>22984</v>
+      </c>
+      <c r="G53" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00022984</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2,0_5052</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="25">
+        <f t="shared" si="1"/>
+        <v>25051.893111380065</v>
+      </c>
+      <c r="E54">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F54" s="26">
+        <f t="shared" si="0"/>
+        <v>25052</v>
+      </c>
+      <c r="G54" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00025052</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2,0_7307</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D55" s="25">
+        <f t="shared" si="1"/>
+        <v>27306.563491404271</v>
+      </c>
+      <c r="E55">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F55" s="26">
+        <f t="shared" si="0"/>
+        <v>27307</v>
+      </c>
+      <c r="G55" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00027307</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2,0_9765</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="25">
+        <f t="shared" si="1"/>
+        <v>29764.154205630657</v>
+      </c>
+      <c r="E56">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F56" s="26">
+        <f t="shared" si="0"/>
+        <v>29765</v>
+      </c>
+      <c r="G56" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00029765</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>9765</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" t="str">
+        <f t="shared" si="3"/>
+        <v>1_3,0_2443</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="25">
+        <f t="shared" si="1"/>
+        <v>32442.92808413742</v>
+      </c>
+      <c r="E57">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F57" s="26">
+        <f t="shared" si="0"/>
+        <v>32443</v>
+      </c>
+      <c r="G57" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00032443</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" t="str">
+        <f t="shared" si="3"/>
+        <v>1_3,0_5363</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D58" s="25">
+        <f t="shared" si="1"/>
+        <v>35362.791611709792</v>
+      </c>
+      <c r="E58">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F58" s="26">
+        <f t="shared" si="0"/>
+        <v>35363</v>
+      </c>
+      <c r="G58" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00035363</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" t="str">
+        <f t="shared" si="3"/>
+        <v>1_3,0_8546</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="25">
+        <f t="shared" si="1"/>
+        <v>38545.442856763679</v>
+      </c>
+      <c r="E59">
+        <v>1.08</v>
+      </c>
+      <c r="F59" s="26">
+        <f t="shared" si="0"/>
+        <v>38546</v>
+      </c>
+      <c r="G59" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00038546</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>8546</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" t="str">
+        <f t="shared" si="3"/>
+        <v>1_4,0_1630</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="25">
+        <f t="shared" si="1"/>
+        <v>41629.078285304779</v>
+      </c>
+      <c r="E60">
+        <v>1.08</v>
+      </c>
+      <c r="F60" s="26">
+        <f t="shared" si="0"/>
+        <v>41630</v>
+      </c>
+      <c r="G60" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00041630</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" t="str">
+        <f t="shared" si="3"/>
+        <v>1_4,0_4960</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="25">
+        <f t="shared" si="1"/>
+        <v>44959.404548129161</v>
+      </c>
+      <c r="E61">
+        <v>1.08</v>
+      </c>
+      <c r="F61" s="26">
+        <f t="shared" si="0"/>
+        <v>44960</v>
+      </c>
+      <c r="G61" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00044960</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" t="str">
+        <f t="shared" si="3"/>
+        <v>1_4,0_8557</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D62" s="25">
+        <f t="shared" si="1"/>
+        <v>48556.156911979495</v>
+      </c>
+      <c r="E62">
+        <v>1.08</v>
+      </c>
+      <c r="F62" s="26">
+        <f t="shared" si="0"/>
+        <v>48557</v>
+      </c>
+      <c r="G62" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00048557</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" t="str">
+        <f t="shared" si="3"/>
+        <v>1_5,0_2441</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D63" s="25">
+        <f t="shared" si="1"/>
+        <v>52440.649464937858</v>
+      </c>
+      <c r="E63">
+        <v>1.08</v>
+      </c>
+      <c r="F63" s="26">
+        <f t="shared" si="0"/>
+        <v>52441</v>
+      </c>
+      <c r="G63" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00052441</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" t="str">
+        <f t="shared" si="3"/>
+        <v>1_5,0_6636</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D64" s="25">
+        <f t="shared" si="1"/>
+        <v>56635.901422132891</v>
+      </c>
+      <c r="E64">
+        <v>1.08</v>
+      </c>
+      <c r="F64" s="26">
+        <f t="shared" si="0"/>
+        <v>56636</v>
+      </c>
+      <c r="G64" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00056636</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>6636</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" t="str">
+        <f t="shared" si="3"/>
+        <v>1_6,0_1167</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="25">
+        <f t="shared" si="1"/>
+        <v>61166.773535903529</v>
+      </c>
+      <c r="E65">
+        <v>1.07</v>
+      </c>
+      <c r="F65" s="26">
+        <f t="shared" si="0"/>
+        <v>61167</v>
+      </c>
+      <c r="G65" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00061167</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" t="str">
+        <f t="shared" si="3"/>
+        <v>1_6,0_5449</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="25">
+        <f t="shared" si="1"/>
+        <v>65448.44768341678</v>
+      </c>
+      <c r="E66">
+        <v>1.07</v>
+      </c>
+      <c r="F66" s="26">
+        <f t="shared" si="0"/>
+        <v>65449</v>
+      </c>
+      <c r="G66" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00065449</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" t="str">
+        <f t="shared" si="3"/>
+        <v>1_7,0_30</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="25">
+        <f t="shared" si="1"/>
+        <v>70029.839021255961</v>
+      </c>
+      <c r="E67">
+        <v>1.07</v>
+      </c>
+      <c r="F67" s="26">
+        <f t="shared" si="0"/>
+        <v>70030</v>
+      </c>
+      <c r="G67" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00070030</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" t="str">
+        <f t="shared" si="3"/>
+        <v>1_7,0_4932</v>
+      </c>
+      <c r="C68">
+        <f>COUNTIF(H68:W68,"&gt;-1")</f>
+        <v>2</v>
+      </c>
+      <c r="D68" s="25">
+        <f t="shared" si="1"/>
+        <v>74931.927752743883</v>
+      </c>
+      <c r="E68">
+        <v>1.07</v>
+      </c>
+      <c r="F68" s="26">
+        <f t="shared" si="0"/>
+        <v>74932</v>
+      </c>
+      <c r="G68" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00074932</v>
+      </c>
+      <c r="H68">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" t="str">
+        <f t="shared" si="3"/>
+        <v>1_8,0_178</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="25">
+        <f t="shared" si="1"/>
+        <v>80177.162695435953</v>
+      </c>
+      <c r="E69">
+        <v>1.07</v>
+      </c>
+      <c r="F69" s="26">
+        <f t="shared" ref="F69:F95" si="5">ROUNDUP(D69,0)</f>
+        <v>80178</v>
+      </c>
+      <c r="G69" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>00080178</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" t="str">
+        <f t="shared" si="3"/>
+        <v>1_8,0_5790</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D70" s="25">
+        <f t="shared" ref="D70:D95" si="6">D69*E69</f>
+        <v>85789.564084116471</v>
+      </c>
+      <c r="E70">
+        <v>1.07</v>
+      </c>
+      <c r="F70" s="26">
+        <f t="shared" si="5"/>
+        <v>85790</v>
+      </c>
+      <c r="G70" s="24" t="str">
+        <f t="shared" ref="G70:G95" si="7">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
+        <v>00085790</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" t="str">
+        <f t="shared" ref="B71:B95" si="8">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
+        <v>1_9,0_1795</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C95" si="9">COUNTIF(H71:W71,"&gt;-1")</f>
+        <v>2</v>
+      </c>
+      <c r="D71" s="25">
+        <f t="shared" si="6"/>
+        <v>91794.83357000463</v>
+      </c>
+      <c r="E71">
+        <v>1.06</v>
+      </c>
+      <c r="F71" s="26">
+        <f t="shared" si="5"/>
+        <v>91795</v>
+      </c>
+      <c r="G71" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00091795</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" t="str">
+        <f t="shared" si="8"/>
+        <v>1_9,0_7303</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D72" s="25">
+        <f t="shared" si="6"/>
+        <v>97302.523584204915</v>
+      </c>
+      <c r="E72">
+        <v>1.06</v>
+      </c>
+      <c r="F72" s="26">
+        <f t="shared" si="5"/>
+        <v>97303</v>
+      </c>
+      <c r="G72" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00097303</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
+      </c>
+      <c r="I72">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" t="str">
+        <f t="shared" si="8"/>
+        <v>1_10,0_3141</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D73" s="25">
+        <f t="shared" si="6"/>
+        <v>103140.67499925721</v>
+      </c>
+      <c r="E73">
+        <v>1.06</v>
+      </c>
+      <c r="F73" s="26">
+        <f t="shared" si="5"/>
+        <v>103141</v>
+      </c>
+      <c r="G73" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00103141</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" t="str">
+        <f t="shared" si="8"/>
+        <v>1_10,0_9330</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="25">
+        <f t="shared" si="6"/>
+        <v>109329.11549921265</v>
+      </c>
+      <c r="E74">
+        <v>1.06</v>
+      </c>
+      <c r="F74" s="26">
+        <f t="shared" si="5"/>
+        <v>109330</v>
+      </c>
+      <c r="G74" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00109330</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" t="str">
+        <f t="shared" si="8"/>
+        <v>1_11,0_5889</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="25">
+        <f t="shared" si="6"/>
+        <v>115888.86242916541</v>
+      </c>
+      <c r="E75">
+        <v>1.06</v>
+      </c>
+      <c r="F75" s="26">
+        <f t="shared" si="5"/>
+        <v>115889</v>
+      </c>
+      <c r="G75" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00115889</v>
+      </c>
+      <c r="H75">
+        <v>11</v>
+      </c>
+      <c r="I75">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" t="str">
+        <f t="shared" si="8"/>
+        <v>1_12,0_2843</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D76" s="25">
+        <f t="shared" si="6"/>
+        <v>122842.19417491535</v>
+      </c>
+      <c r="E76">
+        <v>1.06</v>
+      </c>
+      <c r="F76" s="26">
+        <f t="shared" si="5"/>
+        <v>122843</v>
+      </c>
+      <c r="G76" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00122843</v>
+      </c>
+      <c r="H76">
+        <v>12</v>
+      </c>
+      <c r="I76">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" t="str">
+        <f t="shared" si="8"/>
+        <v>1_13,0_213</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D77" s="25">
+        <f t="shared" si="6"/>
+        <v>130212.72582541028</v>
+      </c>
+      <c r="E77">
+        <v>1.05</v>
+      </c>
+      <c r="F77" s="26">
+        <f t="shared" si="5"/>
+        <v>130213</v>
+      </c>
+      <c r="G77" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00130213</v>
+      </c>
+      <c r="H77">
+        <v>13</v>
+      </c>
+      <c r="I77">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" t="str">
+        <f t="shared" si="8"/>
+        <v>1_13,0_6724</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D78" s="25">
+        <f t="shared" si="6"/>
+        <v>136723.3621166808</v>
+      </c>
+      <c r="E78">
+        <v>1.05</v>
+      </c>
+      <c r="F78" s="26">
+        <f t="shared" si="5"/>
+        <v>136724</v>
+      </c>
+      <c r="G78" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00136724</v>
+      </c>
+      <c r="H78">
+        <v>13</v>
+      </c>
+      <c r="I78">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" t="str">
+        <f t="shared" si="8"/>
+        <v>1_14,0_3560</v>
+      </c>
+      <c r="C79">
+        <f>COUNTIF(H79:W79,"&gt;-1")</f>
+        <v>2</v>
+      </c>
+      <c r="D79" s="25">
+        <f t="shared" si="6"/>
+        <v>143559.53022251485</v>
+      </c>
+      <c r="E79">
+        <v>1.05</v>
+      </c>
+      <c r="F79" s="26">
+        <f t="shared" si="5"/>
+        <v>143560</v>
+      </c>
+      <c r="G79" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00143560</v>
+      </c>
+      <c r="H79">
+        <v>14</v>
+      </c>
+      <c r="I79">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" t="str">
+        <f t="shared" si="8"/>
+        <v>1_15,0_738</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="25">
+        <f t="shared" si="6"/>
+        <v>150737.50673364059</v>
+      </c>
+      <c r="E80">
+        <v>1.05</v>
+      </c>
+      <c r="F80" s="26">
+        <f t="shared" si="5"/>
+        <v>150738</v>
+      </c>
+      <c r="G80" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00150738</v>
+      </c>
+      <c r="H80">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" t="str">
+        <f t="shared" si="8"/>
+        <v>1_15,0_8275</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D81" s="25">
+        <f t="shared" si="6"/>
+        <v>158274.38207032264</v>
+      </c>
+      <c r="E81">
+        <v>1.05</v>
+      </c>
+      <c r="F81" s="26">
+        <f t="shared" si="5"/>
+        <v>158275</v>
+      </c>
+      <c r="G81" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00158275</v>
+      </c>
+      <c r="H81">
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" t="str">
+        <f t="shared" si="8"/>
+        <v>1_16,0_6189</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="25">
+        <f t="shared" si="6"/>
+        <v>166188.10117383878</v>
+      </c>
+      <c r="E82">
+        <v>1.05</v>
+      </c>
+      <c r="F82" s="26">
+        <f t="shared" si="5"/>
+        <v>166189</v>
+      </c>
+      <c r="G82" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00166189</v>
+      </c>
+      <c r="H82">
+        <v>16</v>
+      </c>
+      <c r="I82">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" t="str">
+        <f t="shared" si="8"/>
+        <v>1_17,0_4498</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D83" s="25">
+        <f t="shared" si="6"/>
+        <v>174497.50623253072</v>
+      </c>
+      <c r="E83">
+        <v>1.04</v>
+      </c>
+      <c r="F83" s="26">
+        <f t="shared" si="5"/>
+        <v>174498</v>
+      </c>
+      <c r="G83" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00174498</v>
+      </c>
+      <c r="H83">
+        <v>17</v>
+      </c>
+      <c r="I83">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" t="str">
+        <f t="shared" si="8"/>
+        <v>1_18,0_1478</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="25">
+        <f t="shared" si="6"/>
+        <v>181477.40648183195</v>
+      </c>
+      <c r="E84">
+        <v>1.04</v>
+      </c>
+      <c r="F84" s="26">
+        <f t="shared" si="5"/>
+        <v>181478</v>
+      </c>
+      <c r="G84" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00181478</v>
+      </c>
+      <c r="H84">
+        <v>18</v>
+      </c>
+      <c r="I84">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" t="str">
+        <f t="shared" si="8"/>
+        <v>1_18,0_8737</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="25">
+        <f t="shared" si="6"/>
+        <v>188736.50274110524</v>
+      </c>
+      <c r="E85">
+        <v>1.04</v>
+      </c>
+      <c r="F85" s="26">
+        <f t="shared" si="5"/>
+        <v>188737</v>
+      </c>
+      <c r="G85" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00188737</v>
+      </c>
+      <c r="H85">
+        <v>18</v>
+      </c>
+      <c r="I85">
+        <v>8737</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" t="str">
+        <f t="shared" si="8"/>
+        <v>1_19,0_6286</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D86" s="25">
+        <f t="shared" si="6"/>
+        <v>196285.96285074946</v>
+      </c>
+      <c r="E86">
+        <v>1.04</v>
+      </c>
+      <c r="F86" s="26">
+        <f t="shared" si="5"/>
+        <v>196286</v>
+      </c>
+      <c r="G86" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00196286</v>
+      </c>
+      <c r="H86">
+        <v>19</v>
+      </c>
+      <c r="I86">
+        <v>6286</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="str">
+        <f t="shared" si="8"/>
+        <v>1_20,0_4138</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="25">
+        <f t="shared" si="6"/>
+        <v>204137.40136477945</v>
+      </c>
+      <c r="E87">
+        <v>1.04</v>
+      </c>
+      <c r="F87" s="26">
+        <f t="shared" si="5"/>
+        <v>204138</v>
+      </c>
+      <c r="G87" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00204138</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
+      </c>
+      <c r="I87">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="str">
+        <f t="shared" si="8"/>
+        <v>1_21,0_2303</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D88" s="25">
+        <f t="shared" si="6"/>
+        <v>212302.89741937062</v>
+      </c>
+      <c r="E88">
+        <v>1.04</v>
+      </c>
+      <c r="F88" s="26">
+        <f t="shared" si="5"/>
+        <v>212303</v>
+      </c>
+      <c r="G88" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00212303</v>
+      </c>
+      <c r="H88">
+        <v>21</v>
+      </c>
+      <c r="I88">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" t="str">
+        <f t="shared" si="8"/>
+        <v>1_22,0_796</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="25">
+        <f t="shared" si="6"/>
+        <v>220795.01331614546</v>
+      </c>
+      <c r="E89">
+        <v>1.03</v>
+      </c>
+      <c r="F89" s="26">
+        <f t="shared" si="5"/>
+        <v>220796</v>
+      </c>
+      <c r="G89" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00220796</v>
+      </c>
+      <c r="H89">
+        <v>22</v>
+      </c>
+      <c r="I89">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" t="str">
+        <f t="shared" si="8"/>
+        <v>1_22,0_7419</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D90" s="25">
+        <f t="shared" si="6"/>
+        <v>227418.86371562982</v>
+      </c>
+      <c r="E90">
+        <v>1.03</v>
+      </c>
+      <c r="F90" s="26">
+        <f t="shared" si="5"/>
+        <v>227419</v>
+      </c>
+      <c r="G90" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00227419</v>
+      </c>
+      <c r="H90">
+        <v>22</v>
+      </c>
+      <c r="I90">
+        <v>7419</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" t="str">
+        <f t="shared" si="8"/>
+        <v>1_23,0_4242</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="25">
+        <f t="shared" si="6"/>
+        <v>234241.42962709873</v>
+      </c>
+      <c r="E91">
+        <v>1.03</v>
+      </c>
+      <c r="F91" s="26">
+        <f t="shared" si="5"/>
+        <v>234242</v>
+      </c>
+      <c r="G91" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00234242</v>
+      </c>
+      <c r="H91">
+        <v>23</v>
+      </c>
+      <c r="I91">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" t="str">
+        <f t="shared" si="8"/>
+        <v>1_24,0_1269</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="25">
+        <f t="shared" si="6"/>
+        <v>241268.67251591169</v>
+      </c>
+      <c r="E92">
+        <v>1.03</v>
+      </c>
+      <c r="F92" s="26">
+        <f t="shared" si="5"/>
+        <v>241269</v>
+      </c>
+      <c r="G92" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00241269</v>
+      </c>
+      <c r="H92">
+        <v>24</v>
+      </c>
+      <c r="I92">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" t="str">
+        <f t="shared" si="8"/>
+        <v>1_24,0_8507</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="25">
+        <f t="shared" si="6"/>
+        <v>248506.73269138904</v>
+      </c>
+      <c r="E93">
+        <v>1.03</v>
+      </c>
+      <c r="F93" s="26">
+        <f t="shared" si="5"/>
+        <v>248507</v>
+      </c>
+      <c r="G93" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00248507</v>
+      </c>
+      <c r="H93">
+        <v>24</v>
+      </c>
+      <c r="I93">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" t="str">
+        <f t="shared" si="8"/>
+        <v>1_25,0_5962</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="25">
+        <f t="shared" si="6"/>
+        <v>255961.93467213071</v>
+      </c>
+      <c r="E94">
+        <v>1.03</v>
+      </c>
+      <c r="F94" s="26">
+        <f t="shared" si="5"/>
+        <v>255962</v>
+      </c>
+      <c r="G94" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00255962</v>
+      </c>
+      <c r="H94">
+        <v>25</v>
+      </c>
+      <c r="I94">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" t="str">
+        <f t="shared" si="8"/>
+        <v>1_26,0_3641</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="25">
+        <f t="shared" si="6"/>
+        <v>263640.79271229461</v>
+      </c>
+      <c r="E95">
+        <v>1.03</v>
+      </c>
+      <c r="F95" s="26">
+        <f t="shared" si="5"/>
+        <v>263641</v>
+      </c>
+      <c r="G95" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>00263641</v>
+      </c>
+      <c r="H95">
+        <v>26</v>
+      </c>
+      <c r="I95">
+        <v>3641</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/excel/PalaceMapMaid.xlsx
+++ b/docs/excel/PalaceMapMaid.xlsx
@@ -185,169 +185,169 @@
     <t>[]string</t>
   </si>
   <si>
+    <t>10001_1;20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001_1;20002_1;20004_1;20005_1;20006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>初始值</t>
+  </si>
+  <si>
+    <t>倍数</t>
+  </si>
+  <si>
+    <t>向上取整数</t>
+  </si>
+  <si>
+    <t>0_1000</t>
+  </si>
+  <si>
+    <t>1_100,0_0</t>
+  </si>
+  <si>
+    <t>1_20,0_0</t>
+  </si>
+  <si>
+    <t>1_200,0_0</t>
+  </si>
+  <si>
+    <t>0_30</t>
+  </si>
+  <si>
+    <t>0_60</t>
+  </si>
+  <si>
+    <t>0_90</t>
+  </si>
+  <si>
+    <t>0_150</t>
+  </si>
+  <si>
+    <t>0_200</t>
+  </si>
+  <si>
+    <t>0_250</t>
+  </si>
+  <si>
+    <t>1_6,0_0</t>
+  </si>
+  <si>
+    <t>1_9,0_0</t>
+  </si>
+  <si>
+    <t>1_15,0_0</t>
+  </si>
+  <si>
+    <t>1_25,0_0</t>
+  </si>
+  <si>
     <t>0_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001_1;20001_1;20002_1;20003_1;20004_1;20005_1;20006_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001_1;20002_1;20004_1;20005_1;20006_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>初始值</t>
-  </si>
-  <si>
-    <t>倍数</t>
-  </si>
-  <si>
-    <t>向上取整数</t>
-  </si>
-  <si>
-    <t>0_400</t>
-  </si>
-  <si>
-    <t>0_1000</t>
-  </si>
-  <si>
-    <t>0_1600</t>
-  </si>
-  <si>
-    <t>0_3100</t>
-  </si>
-  <si>
-    <t>0_5500</t>
-  </si>
-  <si>
-    <t>0_8500</t>
-  </si>
-  <si>
-    <t>1_100,0_0</t>
-  </si>
-  <si>
-    <t>1_160,0_0</t>
-  </si>
-  <si>
-    <t>1_310,0_0</t>
-  </si>
-  <si>
-    <t>1_550,0_0</t>
-  </si>
-  <si>
-    <t>1_850,0_0</t>
-  </si>
-  <si>
-    <t>0_8000</t>
-  </si>
-  <si>
-    <t>1_2,0_0</t>
-  </si>
-  <si>
-    <t>1_3,0_2000</t>
-  </si>
-  <si>
-    <t>1_6,0_2000</t>
-  </si>
-  <si>
-    <t>1_11,0_0</t>
-  </si>
-  <si>
-    <t>1_17,0_0</t>
-  </si>
-  <si>
-    <t>1_800,0_0</t>
-  </si>
-  <si>
-    <t>1_2000,0_0</t>
-  </si>
-  <si>
-    <t>1_3200,0_0</t>
-  </si>
-  <si>
-    <t>1_6200,0_0</t>
-  </si>
-  <si>
-    <t>2_1,1_1000</t>
-  </si>
-  <si>
-    <t>2_1,1_7000</t>
-  </si>
-  <si>
-    <t>1_8,0_0</t>
-  </si>
-  <si>
-    <t>1_20,0_0</t>
-  </si>
-  <si>
-    <t>1_32,0_0</t>
-  </si>
-  <si>
-    <t>1_62,0_0</t>
-  </si>
-  <si>
-    <t>2_110,1_0</t>
-  </si>
-  <si>
-    <t>2_170,1_0</t>
-  </si>
-  <si>
-    <t>1_8000,0_0</t>
-  </si>
-  <si>
-    <t>2_2,1_0</t>
-  </si>
-  <si>
-    <t>2_3,1_2000</t>
-  </si>
-  <si>
-    <t>2_6,1_2000</t>
-  </si>
-  <si>
-    <t>2_11,1_0</t>
-  </si>
-  <si>
-    <t>2_17,1_0</t>
-  </si>
-  <si>
-    <t>1_110,0_0</t>
-  </si>
-  <si>
-    <t>1_170,0_0</t>
-  </si>
-  <si>
-    <t>1_80,0_0</t>
-  </si>
-  <si>
-    <t>1_200,0_0</t>
-  </si>
-  <si>
-    <t>1_320,0_0</t>
-  </si>
-  <si>
-    <t>1_620,0_0</t>
-  </si>
-  <si>
-    <t>1_1100,0_0</t>
-  </si>
-  <si>
-    <t>1_1700,0_0</t>
-  </si>
-  <si>
-    <t>2_8,1_0</t>
-  </si>
-  <si>
-    <t>2_20,1_0</t>
-  </si>
-  <si>
-    <t>2_32,1_0</t>
-  </si>
-  <si>
-    <t>2_62,1_0</t>
+    <t>0_500</t>
+  </si>
+  <si>
+    <t>0_900</t>
+  </si>
+  <si>
+    <t>0_1500</t>
+  </si>
+  <si>
+    <t>0_2000</t>
+  </si>
+  <si>
+    <t>0_2800</t>
+  </si>
+  <si>
+    <t>0_3400</t>
+  </si>
+  <si>
+    <t>1_50,0_0</t>
+  </si>
+  <si>
+    <t>1_90,0_0</t>
+  </si>
+  <si>
+    <t>1_150,0_0</t>
+  </si>
+  <si>
+    <t>1_280,0_0</t>
+  </si>
+  <si>
+    <t>1_340,0_0</t>
+  </si>
+  <si>
+    <t>0_3000</t>
+  </si>
+  <si>
+    <t>0_6000</t>
+  </si>
+  <si>
+    <t>1_1,0_2000</t>
+  </si>
+  <si>
+    <t>1_1,0_9000</t>
+  </si>
+  <si>
+    <t>1_2,0_8000</t>
+  </si>
+  <si>
+    <t>1_300,0_0</t>
+  </si>
+  <si>
+    <t>1_600,0_0</t>
+  </si>
+  <si>
+    <t>1_1200,0_0</t>
+  </si>
+  <si>
+    <t>1_1900,0_0</t>
+  </si>
+  <si>
+    <t>1_2800,0_0</t>
+  </si>
+  <si>
+    <t>0_5000</t>
+  </si>
+  <si>
+    <t>1_1,0_3000</t>
+  </si>
+  <si>
+    <t>1_2,0_6000</t>
+  </si>
+  <si>
+    <t>1_3,0_6000</t>
+  </si>
+  <si>
+    <t>1_5,0_5000</t>
+  </si>
+  <si>
+    <t>1_6,0_5000</t>
+  </si>
+  <si>
+    <t>1_500,0_0</t>
+  </si>
+  <si>
+    <t>1_1300,0_0</t>
+  </si>
+  <si>
+    <t>1_2600,0_0</t>
+  </si>
+  <si>
+    <t>1_3600,0_0</t>
+  </si>
+  <si>
+    <t>1_5500,0_0</t>
+  </si>
+  <si>
+    <t>1_6500,0_0</t>
   </si>
 </sst>
 </file>
@@ -849,7 +849,7 @@
   <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -965,13 +965,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11">
         <v>10000</v>
@@ -990,10 +990,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>40</v>
@@ -1015,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>39</v>
@@ -1040,13 +1040,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="11">
         <v>10000</v>
@@ -1065,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>40</v>
@@ -1090,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>39</v>
@@ -1115,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>43</v>
@@ -1140,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>40</v>
@@ -1165,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>39</v>
@@ -1190,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>42</v>
@@ -1215,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>40</v>
@@ -1240,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>39</v>
@@ -1265,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>42</v>
@@ -1293,7 +1293,7 @@
         <v>84</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>40</v>
@@ -1318,7 +1318,7 @@
         <v>85</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>39</v>
@@ -1343,7 +1343,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>42</v>
@@ -1368,7 +1368,7 @@
         <v>87</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>40</v>
@@ -1393,7 +1393,7 @@
         <v>88</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>39</v>
@@ -1415,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>42</v>
@@ -1440,10 +1440,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>40</v>
@@ -1465,10 +1465,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>39</v>
@@ -1490,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>42</v>
@@ -1515,10 +1515,10 @@
         <v>5</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>40</v>
@@ -1540,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>39</v>
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2719,41 +2719,41 @@
     <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D2" s="6"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
         <f>IF(C5&gt;1,C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5,"0_"&amp;H5)</f>
-        <v>1_40,0_0</v>
+        <v>1_3,0_0</v>
       </c>
       <c r="C5">
         <f>COUNTIF(H5:W5,"&gt;-1")</f>
@@ -2765,385 +2765,361 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="24">
-        <f t="shared" ref="F5:F68" si="0">ROUNDUP(D5,0)</f>
-        <v>1</v>
+      <c r="F5" s="1">
+        <v>30000</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>TEXT(F5,REPT("0", CEILING(LEN(F5)/4,1)*4))</f>
-        <v>0001</v>
+        <v>00030000</v>
       </c>
       <c r="H5" s="1">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
         <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0_"&amp;H6)</f>
-        <v>1_100,0_0</v>
+        <v>1_6,0_0</v>
       </c>
       <c r="C6">
         <f>COUNTIF(H6:W6,"&gt;-1")</f>
         <v>2</v>
       </c>
       <c r="D6" s="25">
-        <f t="shared" ref="D6:D69" si="1">D5*E5</f>
+        <f t="shared" ref="D6:D69" si="0">D5*E5</f>
         <v>2</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="F6" s="1">
+        <v>60000</v>
       </c>
       <c r="G6" s="24" t="str">
-        <f t="shared" ref="G6:G69" si="2">TEXT(F6,REPT("0", CEILING(LEN(F6)/4,1)*4))</f>
-        <v>0002</v>
+        <f t="shared" ref="G6:G69" si="1">TEXT(F6,REPT("0", CEILING(LEN(F6)/4,1)*4))</f>
+        <v>00060000</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
-        <v>1_160,0_0</v>
+        <f t="shared" ref="B7:B70" si="2">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
+        <v>1_9,0_0</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
+        <f t="shared" ref="C7:C70" si="3">COUNTIF(H7:W7,"&gt;-1")</f>
         <v>2</v>
       </c>
       <c r="D7" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7">
         <v>1.5</v>
       </c>
-      <c r="F7" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="F7" s="1">
+        <v>90000</v>
       </c>
       <c r="G7" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0004</v>
+        <f t="shared" si="1"/>
+        <v>00090000</v>
       </c>
       <c r="H7" s="1">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
-        <f t="shared" si="3"/>
-        <v>1_310,0_0</v>
+        <f t="shared" si="2"/>
+        <v>1_15,0_0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D8" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E8">
         <v>1.5</v>
       </c>
-      <c r="F8" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F8" s="1">
+        <v>150000</v>
       </c>
       <c r="G8" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0006</v>
+        <f t="shared" si="1"/>
+        <v>00150000</v>
       </c>
       <c r="H8" s="1">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
-        <f t="shared" si="3"/>
-        <v>1_550,0_0</v>
+        <f t="shared" si="2"/>
+        <v>1_20,0_0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D9" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E9">
         <v>1.5</v>
       </c>
-      <c r="F9" s="26">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="F9" s="1">
+        <v>200000</v>
       </c>
       <c r="G9" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0009</v>
+        <f t="shared" si="1"/>
+        <v>00200000</v>
       </c>
       <c r="H9" s="1">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
-        <f t="shared" si="3"/>
-        <v>1_850,0_0</v>
+        <f t="shared" si="2"/>
+        <v>1_25,0_0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D10" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="E10">
         <v>1.5</v>
       </c>
-      <c r="F10" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="F10" s="1">
+        <v>250000</v>
       </c>
       <c r="G10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0014</v>
+        <f t="shared" si="1"/>
+        <v>00250000</v>
       </c>
       <c r="H10" s="1">
-        <v>850</v>
+        <v>25</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
-        <f t="shared" si="3"/>
-        <v>2_8,1_0</v>
+        <f t="shared" si="2"/>
+        <v>1_50,0_0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D11" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
       <c r="E11">
         <v>1.4</v>
       </c>
       <c r="F11" s="1">
-        <v>800000000</v>
+        <v>500000</v>
       </c>
       <c r="G11" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>000800000000</v>
+        <f t="shared" si="1"/>
+        <v>00500000</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
-        <f t="shared" si="3"/>
-        <v>2_20,1_0</v>
+        <f t="shared" si="2"/>
+        <v>1_90,0_0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D12" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28.349999999999998</v>
       </c>
       <c r="E12">
         <v>1.4</v>
       </c>
       <c r="F12" s="1">
-        <v>2000000000</v>
+        <v>900000</v>
       </c>
       <c r="G12" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>002000000000</v>
+        <f t="shared" si="1"/>
+        <v>00900000</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
-        <f t="shared" si="3"/>
-        <v>2_32,1_0</v>
+        <f t="shared" si="2"/>
+        <v>1_150,0_0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D13" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39.69</v>
       </c>
       <c r="E13">
         <v>1.4</v>
       </c>
       <c r="F13" s="1">
-        <v>3200000000</v>
+        <v>1500000</v>
       </c>
       <c r="G13" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>003200000000</v>
+        <f t="shared" si="1"/>
+        <v>01500000</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
-        <f t="shared" si="3"/>
-        <v>2_62,1_0</v>
+        <f t="shared" si="2"/>
+        <v>1_200,0_0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D14" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55.565999999999995</v>
       </c>
       <c r="E14">
         <v>1.4</v>
       </c>
       <c r="F14" s="1">
-        <v>6200000000</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>006200000000</v>
+        <f t="shared" si="1"/>
+        <v>02000000</v>
       </c>
       <c r="H14">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
-        <f t="shared" si="3"/>
-        <v>2_110,1_0</v>
+        <f t="shared" si="2"/>
+        <v>1_280,0_0</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D15" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>77.792399999999986</v>
       </c>
       <c r="E15">
         <v>1.4</v>
       </c>
       <c r="F15" s="1">
-        <v>11000000000</v>
+        <v>2800000</v>
       </c>
       <c r="G15" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>011000000000</v>
+        <f t="shared" si="1"/>
+        <v>02800000</v>
       </c>
       <c r="H15">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
-        <f t="shared" si="3"/>
-        <v>2_170,1_0</v>
+        <f t="shared" si="2"/>
+        <v>1_340,0_0</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D16" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>108.90935999999998</v>
       </c>
       <c r="E16">
         <v>1.4</v>
       </c>
       <c r="F16" s="1">
-        <v>17000000000</v>
+        <v>3400000</v>
       </c>
       <c r="G16" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>017000000000</v>
+        <f t="shared" si="1"/>
+        <v>03400000</v>
       </c>
       <c r="H16">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D17" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>152.47310399999995</v>
       </c>
       <c r="E17">
@@ -3151,377 +3127,401 @@
       </c>
       <c r="F17" s="1">
         <f>SUM(F11:F16)</f>
-        <v>40200000000</v>
+        <v>11100000</v>
       </c>
       <c r="G17" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>040200000000</v>
+        <f t="shared" si="1"/>
+        <v>11100000</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
-        <f t="shared" si="3"/>
-        <v>0_183</v>
+        <f t="shared" si="2"/>
+        <v>1_100,0_0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D18" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>182.96772479999993</v>
       </c>
       <c r="E18">
         <v>1.2</v>
       </c>
-      <c r="F18" s="26">
-        <f t="shared" si="0"/>
-        <v>183</v>
+      <c r="F18" s="1">
+        <v>1000000</v>
       </c>
       <c r="G18" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0183</v>
+        <f t="shared" si="1"/>
+        <v>01000000</v>
       </c>
       <c r="H18">
-        <v>183</v>
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
-        <f t="shared" si="3"/>
-        <v>0_220</v>
+        <f t="shared" si="2"/>
+        <v>1_300,0_0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>219.5612697599999</v>
       </c>
       <c r="E19">
         <v>1.2</v>
       </c>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>220</v>
+      <c r="F19" s="1">
+        <v>3000000</v>
       </c>
       <c r="G19" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0220</v>
+        <f t="shared" si="1"/>
+        <v>03000000</v>
       </c>
       <c r="H19">
-        <v>220</v>
+        <v>300</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
-        <f t="shared" si="3"/>
-        <v>0_264</v>
+        <f t="shared" si="2"/>
+        <v>1_600,0_0</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D20" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>263.47352371199986</v>
       </c>
       <c r="E20">
         <v>1.2</v>
       </c>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>264</v>
+      <c r="F20" s="1">
+        <v>6000000</v>
       </c>
       <c r="G20" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0264</v>
+        <f t="shared" si="1"/>
+        <v>06000000</v>
       </c>
       <c r="H20">
-        <v>264</v>
+        <v>600</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
-        <f t="shared" si="3"/>
-        <v>0_317</v>
+        <f t="shared" si="2"/>
+        <v>1_1200,0_0</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D21" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>316.16822845439981</v>
       </c>
       <c r="E21">
         <v>1.2</v>
       </c>
-      <c r="F21" s="26">
-        <f t="shared" si="0"/>
-        <v>317</v>
+      <c r="F21" s="1">
+        <v>12000000</v>
       </c>
       <c r="G21" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0317</v>
+        <f t="shared" si="1"/>
+        <v>12000000</v>
       </c>
       <c r="H21">
-        <v>317</v>
+        <v>1200</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
-        <f t="shared" si="3"/>
-        <v>0_380</v>
+        <f t="shared" si="2"/>
+        <v>1_1900,0_0</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D22" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>379.40187414527975</v>
       </c>
       <c r="E22">
         <v>1.2</v>
       </c>
-      <c r="F22" s="26">
-        <f t="shared" si="0"/>
-        <v>380</v>
+      <c r="F22" s="1">
+        <v>19000000</v>
       </c>
       <c r="G22" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0380</v>
+        <f t="shared" si="1"/>
+        <v>19000000</v>
       </c>
       <c r="H22">
-        <v>380</v>
+        <v>1900</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
-        <f t="shared" si="3"/>
-        <v>0_456</v>
+        <f t="shared" si="2"/>
+        <v>1_2800,0_0</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D23" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>455.28224897433569</v>
       </c>
       <c r="E23">
         <v>1.18</v>
       </c>
-      <c r="F23" s="26">
-        <f t="shared" si="0"/>
-        <v>456</v>
+      <c r="F23" s="1">
+        <v>28000000</v>
       </c>
       <c r="G23" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0456</v>
+        <f t="shared" si="1"/>
+        <v>28000000</v>
       </c>
       <c r="H23">
-        <v>456</v>
+        <v>2800</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
-        <f t="shared" si="3"/>
-        <v>0_538</v>
+        <f t="shared" si="2"/>
+        <v>1_500,0_0</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D24" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>537.23305378971611</v>
       </c>
       <c r="E24">
         <v>1.18</v>
       </c>
-      <c r="F24" s="26">
-        <f t="shared" si="0"/>
-        <v>538</v>
+      <c r="F24" s="1">
+        <v>5000000</v>
       </c>
       <c r="G24" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0538</v>
+        <f t="shared" si="1"/>
+        <v>05000000</v>
       </c>
       <c r="H24">
-        <v>538</v>
+        <v>500</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
-        <f t="shared" si="3"/>
-        <v>0_634</v>
+        <f t="shared" si="2"/>
+        <v>1_1300,0_0</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D25" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>633.935003471865</v>
       </c>
       <c r="E25">
         <v>1.18</v>
       </c>
-      <c r="F25" s="26">
-        <f t="shared" si="0"/>
-        <v>634</v>
+      <c r="F25" s="1">
+        <v>13000000</v>
       </c>
       <c r="G25" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0634</v>
+        <f t="shared" si="1"/>
+        <v>13000000</v>
       </c>
       <c r="H25">
-        <v>634</v>
+        <v>1300</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
-        <f t="shared" si="3"/>
-        <v>0_749</v>
+        <f t="shared" si="2"/>
+        <v>1_2600,0_0</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D26" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>748.04330409680063</v>
       </c>
       <c r="E26">
         <v>1.18</v>
       </c>
-      <c r="F26" s="26">
-        <f t="shared" si="0"/>
-        <v>749</v>
+      <c r="F26" s="1">
+        <v>26000000</v>
       </c>
       <c r="G26" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0749</v>
+        <f t="shared" si="1"/>
+        <v>26000000</v>
       </c>
       <c r="H26">
-        <v>749</v>
+        <v>2600</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
-        <f t="shared" si="3"/>
-        <v>0_883</v>
+        <f t="shared" si="2"/>
+        <v>1_3600,0_0</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D27" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>882.6910988342247</v>
       </c>
       <c r="E27">
         <v>1.18</v>
       </c>
-      <c r="F27" s="26">
-        <f t="shared" si="0"/>
-        <v>883</v>
+      <c r="F27" s="1">
+        <v>36000000</v>
       </c>
       <c r="G27" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0883</v>
+        <f t="shared" si="1"/>
+        <v>36000000</v>
       </c>
       <c r="H27">
-        <v>883</v>
+        <v>3600</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
-        <f t="shared" si="3"/>
-        <v>0_1042</v>
+        <f t="shared" si="2"/>
+        <v>1_5500,0_0</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D28" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1041.5754966243851</v>
       </c>
       <c r="E28">
         <v>1.18</v>
       </c>
-      <c r="F28" s="26">
-        <f t="shared" si="0"/>
-        <v>1042</v>
+      <c r="F28" s="1">
+        <v>55000000</v>
       </c>
       <c r="G28" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>1042</v>
+        <f t="shared" si="1"/>
+        <v>55000000</v>
       </c>
       <c r="H28">
-        <v>1042</v>
+        <v>5500</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
-        <f t="shared" si="3"/>
-        <v>0_1230</v>
+        <f t="shared" si="2"/>
+        <v>1_6500,0_0</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D29" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1229.0590860167742</v>
       </c>
       <c r="E29">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F29" s="26">
-        <f t="shared" si="0"/>
-        <v>1230</v>
+      <c r="F29" s="1">
+        <v>65000000</v>
       </c>
       <c r="G29" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>1230</v>
+        <f t="shared" si="1"/>
+        <v>65000000</v>
       </c>
       <c r="H29">
-        <v>1230</v>
+        <v>6500</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_1426</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D30" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1425.7085397794581</v>
       </c>
       <c r="E30">
         <v>1.1599999999999999</v>
       </c>
       <c r="F30" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F5:F68" si="4">ROUNDUP(D30,0)</f>
         <v>1426</v>
       </c>
       <c r="G30" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1426</v>
       </c>
       <c r="H30">
@@ -3530,26 +3530,26 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_1654</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D31" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1653.8219061441712</v>
       </c>
       <c r="E31">
         <v>1.1599999999999999</v>
       </c>
       <c r="F31" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1654</v>
       </c>
       <c r="G31" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1654</v>
       </c>
       <c r="H31">
@@ -3558,26 +3558,26 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_1919</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D32" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1918.4334111272385</v>
       </c>
       <c r="E32">
         <v>1.1599999999999999</v>
       </c>
       <c r="F32" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1919</v>
       </c>
       <c r="G32" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1919</v>
       </c>
       <c r="H32">
@@ -3586,26 +3586,26 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_2226</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D33" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2225.3827569075966</v>
       </c>
       <c r="E33">
         <v>1.1599999999999999</v>
       </c>
       <c r="F33" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2226</v>
       </c>
       <c r="G33" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2226</v>
       </c>
       <c r="H33">
@@ -3614,26 +3614,26 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_2582</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D34" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2581.4439980128118</v>
       </c>
       <c r="E34">
         <v>1.1599999999999999</v>
       </c>
       <c r="F34" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2582</v>
       </c>
       <c r="G34" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2582</v>
       </c>
       <c r="H34">
@@ -3642,26 +3642,26 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_2995</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D35" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2994.4750376948614</v>
       </c>
       <c r="E35">
         <v>1.1399999999999999</v>
       </c>
       <c r="F35" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2995</v>
       </c>
       <c r="G35" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2995</v>
       </c>
       <c r="H35">
@@ -3670,26 +3670,26 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_3414</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D36" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3413.7015429721419</v>
       </c>
       <c r="E36">
         <v>1.1399999999999999</v>
       </c>
       <c r="F36" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3414</v>
       </c>
       <c r="G36" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3414</v>
       </c>
       <c r="H36">
@@ -3698,26 +3698,26 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_3892</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D37" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3891.6197589882413</v>
       </c>
       <c r="E37">
         <v>1.1399999999999999</v>
       </c>
       <c r="F37" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3892</v>
       </c>
       <c r="G37" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3892</v>
       </c>
       <c r="H37">
@@ -3726,26 +3726,26 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_4437</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D38" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4436.4465252465943</v>
       </c>
       <c r="E38">
         <v>1.1399999999999999</v>
       </c>
       <c r="F38" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4437</v>
       </c>
       <c r="G38" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4437</v>
       </c>
       <c r="H38">
@@ -3754,26 +3754,26 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_5058</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D39" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5057.5490387811169</v>
       </c>
       <c r="E39">
         <v>1.1399999999999999</v>
       </c>
       <c r="F39" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5058</v>
       </c>
       <c r="G39" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5058</v>
       </c>
       <c r="H39">
@@ -3782,26 +3782,26 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_5766</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D40" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5765.6059042104725</v>
       </c>
       <c r="E40">
         <v>1.1399999999999999</v>
       </c>
       <c r="F40" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5766</v>
       </c>
       <c r="G40" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5766</v>
       </c>
       <c r="H40">
@@ -3810,26 +3810,26 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_6573</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D41" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6572.7907307999385</v>
       </c>
       <c r="E41">
         <v>1.1200000000000001</v>
       </c>
       <c r="F41" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6573</v>
       </c>
       <c r="G41" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6573</v>
       </c>
       <c r="H41">
@@ -3838,26 +3838,26 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_7362</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7361.5256184959317</v>
       </c>
       <c r="E42" s="6">
         <v>1.1200000000000001</v>
       </c>
       <c r="F42" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7362</v>
       </c>
       <c r="G42" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7362</v>
       </c>
       <c r="H42">
@@ -3866,26 +3866,26 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_8245</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D43" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8244.908692715444</v>
       </c>
       <c r="E43" s="6">
         <v>1.1200000000000001</v>
       </c>
       <c r="F43" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8245</v>
       </c>
       <c r="G43" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8245</v>
       </c>
       <c r="H43">
@@ -3894,26 +3894,26 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0_9235</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D44" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9234.2977358412973</v>
       </c>
       <c r="E44" s="6">
         <v>1.1200000000000001</v>
       </c>
       <c r="F44" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9235</v>
       </c>
       <c r="G44" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9235</v>
       </c>
       <c r="H44">
@@ -3922,26 +3922,26 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_1,0_343</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D45" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10342.413464142253</v>
       </c>
       <c r="E45" s="6">
         <v>1.1200000000000001</v>
       </c>
       <c r="F45" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10343</v>
       </c>
       <c r="G45" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00010343</v>
       </c>
       <c r="H45">
@@ -3953,26 +3953,26 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_1,0_1584</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D46" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11583.503079839325</v>
       </c>
       <c r="E46" s="6">
         <v>1.1200000000000001</v>
       </c>
       <c r="F46" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11584</v>
       </c>
       <c r="G46" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00011584</v>
       </c>
       <c r="H46">
@@ -3984,26 +3984,26 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_1,0_2974</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D47" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12973.523449420045</v>
       </c>
       <c r="E47" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="F47" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12974</v>
       </c>
       <c r="G47" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00012974</v>
       </c>
       <c r="H47">
@@ -4015,26 +4015,26 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_1,0_4271</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D48" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14270.875794362051</v>
       </c>
       <c r="E48">
         <v>1.1000000000000001</v>
       </c>
       <c r="F48" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14271</v>
       </c>
       <c r="G48" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00014271</v>
       </c>
       <c r="H48">
@@ -4046,26 +4046,26 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_1,0_5698</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D49" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15697.963373798257</v>
       </c>
       <c r="E49">
         <v>1.1000000000000001</v>
       </c>
       <c r="F49" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15698</v>
       </c>
       <c r="G49" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00015698</v>
       </c>
       <c r="H49">
@@ -4077,26 +4077,26 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_1,0_7268</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D50" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17267.759711178085</v>
       </c>
       <c r="E50">
         <v>1.1000000000000001</v>
       </c>
       <c r="F50" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17268</v>
       </c>
       <c r="G50" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00017268</v>
       </c>
       <c r="H50">
@@ -4108,26 +4108,26 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_1,0_8995</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D51" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18994.535682295897</v>
       </c>
       <c r="E51">
         <v>1.1000000000000001</v>
       </c>
       <c r="F51" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18995</v>
       </c>
       <c r="G51" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00018995</v>
       </c>
       <c r="H51">
@@ -4139,26 +4139,26 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_2,0_894</v>
       </c>
       <c r="C52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D52" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20893.989250525487</v>
       </c>
       <c r="E52">
         <v>1.1000000000000001</v>
       </c>
       <c r="F52" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20894</v>
       </c>
       <c r="G52" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00020894</v>
       </c>
       <c r="H52">
@@ -4170,26 +4170,26 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_2,0_2984</v>
       </c>
       <c r="C53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D53" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22983.388175578038</v>
       </c>
       <c r="E53">
         <v>1.0900000000000001</v>
       </c>
       <c r="F53" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22984</v>
       </c>
       <c r="G53" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00022984</v>
       </c>
       <c r="H53">
@@ -4201,26 +4201,26 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_2,0_5052</v>
       </c>
       <c r="C54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D54" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25051.893111380065</v>
       </c>
       <c r="E54">
         <v>1.0900000000000001</v>
       </c>
       <c r="F54" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25052</v>
       </c>
       <c r="G54" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00025052</v>
       </c>
       <c r="H54">
@@ -4232,26 +4232,26 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_2,0_7307</v>
       </c>
       <c r="C55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D55" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27306.563491404271</v>
       </c>
       <c r="E55">
         <v>1.0900000000000001</v>
       </c>
       <c r="F55" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27307</v>
       </c>
       <c r="G55" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00027307</v>
       </c>
       <c r="H55">
@@ -4263,26 +4263,26 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_2,0_9765</v>
       </c>
       <c r="C56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D56" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29764.154205630657</v>
       </c>
       <c r="E56">
         <v>1.0900000000000001</v>
       </c>
       <c r="F56" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29765</v>
       </c>
       <c r="G56" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00029765</v>
       </c>
       <c r="H56">
@@ -4294,26 +4294,26 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_3,0_2443</v>
       </c>
       <c r="C57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D57" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32442.92808413742</v>
       </c>
       <c r="E57">
         <v>1.0900000000000001</v>
       </c>
       <c r="F57" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>32443</v>
       </c>
       <c r="G57" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00032443</v>
       </c>
       <c r="H57">
@@ -4325,26 +4325,26 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_3,0_5363</v>
       </c>
       <c r="C58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D58" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35362.791611709792</v>
       </c>
       <c r="E58">
         <v>1.0900000000000001</v>
       </c>
       <c r="F58" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35363</v>
       </c>
       <c r="G58" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00035363</v>
       </c>
       <c r="H58">
@@ -4356,26 +4356,26 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_3,0_8546</v>
       </c>
       <c r="C59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D59" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38545.442856763679</v>
       </c>
       <c r="E59">
         <v>1.08</v>
       </c>
       <c r="F59" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38546</v>
       </c>
       <c r="G59" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00038546</v>
       </c>
       <c r="H59">
@@ -4387,26 +4387,26 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_4,0_1630</v>
       </c>
       <c r="C60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D60" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41629.078285304779</v>
       </c>
       <c r="E60">
         <v>1.08</v>
       </c>
       <c r="F60" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41630</v>
       </c>
       <c r="G60" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00041630</v>
       </c>
       <c r="H60">
@@ -4418,26 +4418,26 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_4,0_4960</v>
       </c>
       <c r="C61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D61" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44959.404548129161</v>
       </c>
       <c r="E61">
         <v>1.08</v>
       </c>
       <c r="F61" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>44960</v>
       </c>
       <c r="G61" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00044960</v>
       </c>
       <c r="H61">
@@ -4449,26 +4449,26 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_4,0_8557</v>
       </c>
       <c r="C62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D62" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48556.156911979495</v>
       </c>
       <c r="E62">
         <v>1.08</v>
       </c>
       <c r="F62" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48557</v>
       </c>
       <c r="G62" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00048557</v>
       </c>
       <c r="H62">
@@ -4480,26 +4480,26 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_5,0_2441</v>
       </c>
       <c r="C63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D63" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52440.649464937858</v>
       </c>
       <c r="E63">
         <v>1.08</v>
       </c>
       <c r="F63" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52441</v>
       </c>
       <c r="G63" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00052441</v>
       </c>
       <c r="H63">
@@ -4511,26 +4511,26 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_5,0_6636</v>
       </c>
       <c r="C64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D64" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56635.901422132891</v>
       </c>
       <c r="E64">
         <v>1.08</v>
       </c>
       <c r="F64" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>56636</v>
       </c>
       <c r="G64" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00056636</v>
       </c>
       <c r="H64">
@@ -4542,26 +4542,26 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_6,0_1167</v>
       </c>
       <c r="C65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D65" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61166.773535903529</v>
       </c>
       <c r="E65">
         <v>1.07</v>
       </c>
       <c r="F65" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>61167</v>
       </c>
       <c r="G65" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00061167</v>
       </c>
       <c r="H65">
@@ -4573,26 +4573,26 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_6,0_5449</v>
       </c>
       <c r="C66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D66" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65448.44768341678</v>
       </c>
       <c r="E66">
         <v>1.07</v>
       </c>
       <c r="F66" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>65449</v>
       </c>
       <c r="G66" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00065449</v>
       </c>
       <c r="H66">
@@ -4604,26 +4604,26 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_7,0_30</v>
       </c>
       <c r="C67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D67" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70029.839021255961</v>
       </c>
       <c r="E67">
         <v>1.07</v>
       </c>
       <c r="F67" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70030</v>
       </c>
       <c r="G67" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00070030</v>
       </c>
       <c r="H67">
@@ -4635,7 +4635,7 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_7,0_4932</v>
       </c>
       <c r="C68">
@@ -4643,18 +4643,18 @@
         <v>2</v>
       </c>
       <c r="D68" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74931.927752743883</v>
       </c>
       <c r="E68">
         <v>1.07</v>
       </c>
       <c r="F68" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>74932</v>
       </c>
       <c r="G68" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00074932</v>
       </c>
       <c r="H68">
@@ -4666,15 +4666,15 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_8,0_178</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D69" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80177.162695435953</v>
       </c>
       <c r="E69">
@@ -4685,7 +4685,7 @@
         <v>80178</v>
       </c>
       <c r="G69" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00080178</v>
       </c>
       <c r="H69">
@@ -4697,11 +4697,11 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1_8,0_5790</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D70" s="25">
